--- a/Players_rating.xlsx
+++ b/Players_rating.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Elo Rating</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Thomas</t>
+  </si>
+  <si>
+    <t>Nikolai</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1522</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -454,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1460</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -542,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1475</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -559,6 +562,14 @@
       </c>
       <c r="B17">
         <v>1527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1487</v>
       </c>
     </row>
   </sheetData>

--- a/Players_rating.xlsx
+++ b/Players_rating.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Elo Rating</t>
   </si>
@@ -67,7 +67,10 @@
     <t>Thomas</t>
   </si>
   <si>
-    <t>Nikolai</t>
+    <t>Nikolaj</t>
+  </si>
+  <si>
+    <t>Heiko</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +444,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1475</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -449,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1540</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -457,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1478</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -481,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1524</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -489,7 +492,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1538</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -497,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -545,7 +548,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1462</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -553,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1517</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -561,7 +564,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1527</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -569,7 +572,15 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1487</v>
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1520</v>
       </c>
     </row>
   </sheetData>

--- a/Players_rating.xlsx
+++ b/Players_rating.xlsx
@@ -444,7 +444,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1508</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -452,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1574</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -540,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1477</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="15" spans="1:2">

--- a/Players_rating.xlsx
+++ b/Players_rating.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Elo Rating</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Heiko</t>
+  </si>
+  <si>
+    <t>Nanna</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1518</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -452,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1588</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -460,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1461</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -468,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1500</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -476,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1514</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -492,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1546</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -516,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1553</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -556,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1499</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -572,7 +575,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1472</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -581,6 +584,14 @@
       </c>
       <c r="B19">
         <v>1520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1484</v>
       </c>
     </row>
   </sheetData>
